--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col8a1-Itga1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col8a1-Itga1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.87516358219952</v>
+        <v>4.656903666666667</v>
       </c>
       <c r="H2">
-        <v>3.87516358219952</v>
+        <v>13.970711</v>
       </c>
       <c r="I2">
-        <v>0.03067382577930842</v>
+        <v>0.03472688986918189</v>
       </c>
       <c r="J2">
-        <v>0.03067382577930842</v>
+        <v>0.03526504803992261</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>60.0192629608699</v>
+        <v>62.07563766666667</v>
       </c>
       <c r="N2">
-        <v>60.0192629608699</v>
+        <v>186.226913</v>
       </c>
       <c r="O2">
-        <v>0.4645965709407801</v>
+        <v>0.4556169394345516</v>
       </c>
       <c r="P2">
-        <v>0.4645965709407801</v>
+        <v>0.53808222397892</v>
       </c>
       <c r="Q2">
-        <v>232.5844620564196</v>
+        <v>289.0802646605715</v>
       </c>
       <c r="R2">
-        <v>232.5844620564196</v>
+        <v>2601.722381945143</v>
       </c>
       <c r="S2">
-        <v>0.01425095427470159</v>
+        <v>0.01582215927827739</v>
       </c>
       <c r="T2">
-        <v>0.01425095427470159</v>
+        <v>0.01897549547804501</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.87516358219952</v>
+        <v>4.656903666666667</v>
       </c>
       <c r="H3">
-        <v>3.87516358219952</v>
+        <v>13.970711</v>
       </c>
       <c r="I3">
-        <v>0.03067382577930842</v>
+        <v>0.03472688986918189</v>
       </c>
       <c r="J3">
-        <v>0.03067382577930842</v>
+        <v>0.03526504803992261</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.71418317261223</v>
+        <v>8.371752000000001</v>
       </c>
       <c r="N3">
-        <v>7.71418317261223</v>
+        <v>25.115256</v>
       </c>
       <c r="O3">
-        <v>0.05971387972460307</v>
+        <v>0.06144619962548196</v>
       </c>
       <c r="P3">
-        <v>0.05971387972460307</v>
+        <v>0.07256777544435759</v>
       </c>
       <c r="Q3">
-        <v>29.89372169692327</v>
+        <v>38.986442585224</v>
       </c>
       <c r="R3">
-        <v>29.89372169692327</v>
+        <v>350.877983267016</v>
       </c>
       <c r="S3">
-        <v>0.001831653143279052</v>
+        <v>0.002133835407273878</v>
       </c>
       <c r="T3">
-        <v>0.001831653143279052</v>
+        <v>0.002559106087195586</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.87516358219952</v>
+        <v>4.656903666666667</v>
       </c>
       <c r="H4">
-        <v>3.87516358219952</v>
+        <v>13.970711</v>
       </c>
       <c r="I4">
-        <v>0.03067382577930842</v>
+        <v>0.03472688986918189</v>
       </c>
       <c r="J4">
-        <v>0.03067382577930842</v>
+        <v>0.03526504803992261</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.301902572283414</v>
+        <v>0.4371553333333333</v>
       </c>
       <c r="N4">
-        <v>0.301902572283414</v>
+        <v>1.311466</v>
       </c>
       <c r="O4">
-        <v>0.002336964716353161</v>
+        <v>0.003208591687778628</v>
       </c>
       <c r="P4">
-        <v>0.002336964716353161</v>
+        <v>0.003789337054374833</v>
       </c>
       <c r="Q4">
-        <v>1.169921853485044</v>
+        <v>2.035790274702889</v>
       </c>
       <c r="R4">
-        <v>1.169921853485044</v>
+        <v>18.322112472326</v>
       </c>
       <c r="S4">
-        <v>7.168364856180779E-05</v>
+        <v>0.0001114244101766609</v>
       </c>
       <c r="T4">
-        <v>7.168364856180779E-05</v>
+        <v>0.0001336311532619873</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.87516358219952</v>
+        <v>4.656903666666667</v>
       </c>
       <c r="H5">
-        <v>3.87516358219952</v>
+        <v>13.970711</v>
       </c>
       <c r="I5">
-        <v>0.03067382577930842</v>
+        <v>0.03472688986918189</v>
       </c>
       <c r="J5">
-        <v>0.03067382577930842</v>
+        <v>0.03526504803992261</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.19949602196181</v>
+        <v>2.718766</v>
       </c>
       <c r="N5">
-        <v>1.19949602196181</v>
+        <v>8.156298</v>
       </c>
       <c r="O5">
-        <v>0.009285048019064952</v>
+        <v>0.01995494352567695</v>
       </c>
       <c r="P5">
-        <v>0.009285048019064952</v>
+        <v>0.0235667277976885</v>
       </c>
       <c r="Q5">
-        <v>4.648243301299602</v>
+        <v>12.66103135420867</v>
       </c>
       <c r="R5">
-        <v>4.648243301299602</v>
+        <v>113.949282187878</v>
       </c>
       <c r="S5">
-        <v>0.0002848079452893111</v>
+        <v>0.0006929731261619276</v>
       </c>
       <c r="T5">
-        <v>0.0002848079452893111</v>
+        <v>0.0008310817879292644</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.87516358219952</v>
+        <v>4.656903666666667</v>
       </c>
       <c r="H6">
-        <v>3.87516358219952</v>
+        <v>13.970711</v>
       </c>
       <c r="I6">
-        <v>0.03067382577930842</v>
+        <v>0.03472688986918189</v>
       </c>
       <c r="J6">
-        <v>0.03067382577930842</v>
+        <v>0.03526504803992261</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>59.9509192552795</v>
+        <v>62.6419255</v>
       </c>
       <c r="N6">
-        <v>59.9509192552795</v>
+        <v>125.283851</v>
       </c>
       <c r="O6">
-        <v>0.4640675365991989</v>
+        <v>0.4597733257265108</v>
       </c>
       <c r="P6">
-        <v>0.4640675365991989</v>
+        <v>0.3619939357246589</v>
       </c>
       <c r="Q6">
-        <v>232.3196190174431</v>
+        <v>291.7174125480101</v>
       </c>
       <c r="R6">
-        <v>232.3196190174431</v>
+        <v>1750.304475288061</v>
       </c>
       <c r="S6">
-        <v>0.01423472676747666</v>
+        <v>0.01596649764729203</v>
       </c>
       <c r="T6">
-        <v>0.01423472676747666</v>
+        <v>0.01276573353349075</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>117.335134249084</v>
+        <v>123.304606</v>
       </c>
       <c r="H7">
-        <v>117.335134249084</v>
+        <v>369.913818</v>
       </c>
       <c r="I7">
-        <v>0.9287652996845437</v>
+        <v>0.9194919584818978</v>
       </c>
       <c r="J7">
-        <v>0.9287652996845437</v>
+        <v>0.9337412077596615</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>60.0192629608699</v>
+        <v>62.07563766666667</v>
       </c>
       <c r="N7">
-        <v>60.0192629608699</v>
+        <v>186.226913</v>
       </c>
       <c r="O7">
-        <v>0.4645965709407801</v>
+        <v>0.4556169394345516</v>
       </c>
       <c r="P7">
-        <v>0.4645965709407801</v>
+        <v>0.53808222397892</v>
       </c>
       <c r="Q7">
-        <v>7042.368277044745</v>
+        <v>7654.212044687092</v>
       </c>
       <c r="R7">
-        <v>7042.368277044745</v>
+        <v>68887.90840218384</v>
       </c>
       <c r="S7">
-        <v>0.4315011734422249</v>
+        <v>0.4189361119582041</v>
       </c>
       <c r="T7">
-        <v>0.4315011734422249</v>
+        <v>0.5024295456920815</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>117.335134249084</v>
+        <v>123.304606</v>
       </c>
       <c r="H8">
-        <v>117.335134249084</v>
+        <v>369.913818</v>
       </c>
       <c r="I8">
-        <v>0.9287652996845437</v>
+        <v>0.9194919584818978</v>
       </c>
       <c r="J8">
-        <v>0.9287652996845437</v>
+        <v>0.9337412077596615</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.71418317261223</v>
+        <v>8.371752000000001</v>
       </c>
       <c r="N8">
-        <v>7.71418317261223</v>
+        <v>25.115256</v>
       </c>
       <c r="O8">
-        <v>0.05971387972460307</v>
+        <v>0.06144619962548196</v>
       </c>
       <c r="P8">
-        <v>0.05971387972460307</v>
+        <v>0.07256777544435759</v>
       </c>
       <c r="Q8">
-        <v>905.1447181804807</v>
+        <v>1032.275581889712</v>
       </c>
       <c r="R8">
-        <v>905.1447181804807</v>
+        <v>9290.480237007409</v>
       </c>
       <c r="S8">
-        <v>0.05546017939774776</v>
+        <v>0.05649928643490406</v>
       </c>
       <c r="T8">
-        <v>0.05546017939774776</v>
+        <v>0.06775952228784636</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>117.335134249084</v>
+        <v>123.304606</v>
       </c>
       <c r="H9">
-        <v>117.335134249084</v>
+        <v>369.913818</v>
       </c>
       <c r="I9">
-        <v>0.9287652996845437</v>
+        <v>0.9194919584818978</v>
       </c>
       <c r="J9">
-        <v>0.9287652996845437</v>
+        <v>0.9337412077596615</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.301902572283414</v>
+        <v>0.4371553333333333</v>
       </c>
       <c r="N9">
-        <v>0.301902572283414</v>
+        <v>1.311466</v>
       </c>
       <c r="O9">
-        <v>0.002336964716353161</v>
+        <v>0.003208591687778628</v>
       </c>
       <c r="P9">
-        <v>0.002336964716353161</v>
+        <v>0.003789337054374833</v>
       </c>
       <c r="Q9">
-        <v>35.42377884901817</v>
+        <v>53.90326613746533</v>
       </c>
       <c r="R9">
-        <v>35.42377884901817</v>
+        <v>485.129395237188</v>
       </c>
       <c r="S9">
-        <v>0.002170491735135948</v>
+        <v>0.002950274254964309</v>
       </c>
       <c r="T9">
-        <v>0.002170491735135948</v>
+        <v>0.003538260157760395</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>117.335134249084</v>
+        <v>123.304606</v>
       </c>
       <c r="H10">
-        <v>117.335134249084</v>
+        <v>369.913818</v>
       </c>
       <c r="I10">
-        <v>0.9287652996845437</v>
+        <v>0.9194919584818978</v>
       </c>
       <c r="J10">
-        <v>0.9287652996845437</v>
+        <v>0.9337412077596615</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.19949602196181</v>
+        <v>2.718766</v>
       </c>
       <c r="N10">
-        <v>1.19949602196181</v>
+        <v>8.156298</v>
       </c>
       <c r="O10">
-        <v>0.009285048019064952</v>
+        <v>0.01995494352567695</v>
       </c>
       <c r="P10">
-        <v>0.009285048019064952</v>
+        <v>0.0235667277976885</v>
       </c>
       <c r="Q10">
-        <v>140.7430267681312</v>
+        <v>335.236370436196</v>
       </c>
       <c r="R10">
-        <v>140.7430267681312</v>
+        <v>3017.127333925764</v>
       </c>
       <c r="S10">
-        <v>0.008623630406012238</v>
+        <v>0.01834841010382036</v>
       </c>
       <c r="T10">
-        <v>0.008623630406012238</v>
+        <v>0.02200522487675684</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>117.335134249084</v>
+        <v>123.304606</v>
       </c>
       <c r="H11">
-        <v>117.335134249084</v>
+        <v>369.913818</v>
       </c>
       <c r="I11">
-        <v>0.9287652996845437</v>
+        <v>0.9194919584818978</v>
       </c>
       <c r="J11">
-        <v>0.9287652996845437</v>
+        <v>0.9337412077596615</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.9509192552795</v>
+        <v>62.6419255</v>
       </c>
       <c r="N11">
-        <v>59.9509192552795</v>
+        <v>125.283851</v>
       </c>
       <c r="O11">
-        <v>0.4640675365991989</v>
+        <v>0.4597733257265108</v>
       </c>
       <c r="P11">
-        <v>0.4640675365991989</v>
+        <v>0.3619939357246589</v>
       </c>
       <c r="Q11">
-        <v>7034.349159174216</v>
+        <v>7724.037942858852</v>
       </c>
       <c r="R11">
-        <v>7034.349159174216</v>
+        <v>46344.22765715312</v>
       </c>
       <c r="S11">
-        <v>0.4310098247034229</v>
+        <v>0.422757875730005</v>
       </c>
       <c r="T11">
-        <v>0.4310098247034229</v>
+        <v>0.3380086547452163</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.12423931059401</v>
+        <v>6.139289</v>
       </c>
       <c r="H12">
-        <v>5.12423931059401</v>
+        <v>12.278578</v>
       </c>
       <c r="I12">
-        <v>0.04056087453614789</v>
+        <v>0.04578115164892033</v>
       </c>
       <c r="J12">
-        <v>0.04056087453614789</v>
+        <v>0.03099374420041592</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>60.0192629608699</v>
+        <v>62.07563766666667</v>
       </c>
       <c r="N12">
-        <v>60.0192629608699</v>
+        <v>186.226913</v>
       </c>
       <c r="O12">
-        <v>0.4645965709407801</v>
+        <v>0.4556169394345516</v>
       </c>
       <c r="P12">
-        <v>0.4645965709407801</v>
+        <v>0.53808222397892</v>
       </c>
       <c r="Q12">
-        <v>307.5530666569686</v>
+        <v>381.1002794949523</v>
       </c>
       <c r="R12">
-        <v>307.5530666569686</v>
+        <v>2286.601676969714</v>
       </c>
       <c r="S12">
-        <v>0.01884444322385351</v>
+        <v>0.02085866819807016</v>
       </c>
       <c r="T12">
-        <v>0.01884444322385351</v>
+        <v>0.01667718280879355</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.12423931059401</v>
+        <v>6.139289</v>
       </c>
       <c r="H13">
-        <v>5.12423931059401</v>
+        <v>12.278578</v>
       </c>
       <c r="I13">
-        <v>0.04056087453614789</v>
+        <v>0.04578115164892033</v>
       </c>
       <c r="J13">
-        <v>0.04056087453614789</v>
+        <v>0.03099374420041592</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.71418317261223</v>
+        <v>8.371752000000001</v>
       </c>
       <c r="N13">
-        <v>7.71418317261223</v>
+        <v>25.115256</v>
       </c>
       <c r="O13">
-        <v>0.05971387972460307</v>
+        <v>0.06144619962548196</v>
       </c>
       <c r="P13">
-        <v>0.05971387972460307</v>
+        <v>0.07256777544435759</v>
       </c>
       <c r="Q13">
-        <v>39.5293206622224</v>
+        <v>51.39660496432801</v>
       </c>
       <c r="R13">
-        <v>39.5293206622224</v>
+        <v>308.379629785968</v>
       </c>
       <c r="S13">
-        <v>0.00242204718357625</v>
+        <v>0.002813077783304021</v>
       </c>
       <c r="T13">
-        <v>0.00242204718357625</v>
+        <v>0.002249147069315643</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.12423931059401</v>
+        <v>6.139289</v>
       </c>
       <c r="H14">
-        <v>5.12423931059401</v>
+        <v>12.278578</v>
       </c>
       <c r="I14">
-        <v>0.04056087453614789</v>
+        <v>0.04578115164892033</v>
       </c>
       <c r="J14">
-        <v>0.04056087453614789</v>
+        <v>0.03099374420041592</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.301902572283414</v>
+        <v>0.4371553333333333</v>
       </c>
       <c r="N14">
-        <v>0.301902572283414</v>
+        <v>1.311466</v>
       </c>
       <c r="O14">
-        <v>0.002336964716353161</v>
+        <v>0.003208591687778628</v>
       </c>
       <c r="P14">
-        <v>0.002336964716353161</v>
+        <v>0.003789337054374833</v>
       </c>
       <c r="Q14">
-        <v>1.54702102886412</v>
+        <v>2.683822929224667</v>
       </c>
       <c r="R14">
-        <v>1.54702102886412</v>
+        <v>16.102937575348</v>
       </c>
       <c r="S14">
-        <v>9.4789332655405E-05</v>
+        <v>0.0001468930226376586</v>
       </c>
       <c r="T14">
-        <v>9.4789332655405E-05</v>
+        <v>0.0001174457433524511</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.12423931059401</v>
+        <v>6.139289</v>
       </c>
       <c r="H15">
-        <v>5.12423931059401</v>
+        <v>12.278578</v>
       </c>
       <c r="I15">
-        <v>0.04056087453614789</v>
+        <v>0.04578115164892033</v>
       </c>
       <c r="J15">
-        <v>0.04056087453614789</v>
+        <v>0.03099374420041592</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.19949602196181</v>
+        <v>2.718766</v>
       </c>
       <c r="N15">
-        <v>1.19949602196181</v>
+        <v>8.156298</v>
       </c>
       <c r="O15">
-        <v>0.009285048019064952</v>
+        <v>0.01995494352567695</v>
       </c>
       <c r="P15">
-        <v>0.009285048019064952</v>
+        <v>0.0235667277976885</v>
       </c>
       <c r="Q15">
-        <v>6.146504668637843</v>
+        <v>16.691290197374</v>
       </c>
       <c r="R15">
-        <v>6.146504668637843</v>
+        <v>100.147741184244</v>
       </c>
       <c r="S15">
-        <v>0.000376609667763402</v>
+        <v>0.0009135602956946573</v>
       </c>
       <c r="T15">
-        <v>0.000376609667763402</v>
+        <v>0.0007304211330023885</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.12423931059401</v>
+        <v>6.139289</v>
       </c>
       <c r="H16">
-        <v>5.12423931059401</v>
+        <v>12.278578</v>
       </c>
       <c r="I16">
-        <v>0.04056087453614789</v>
+        <v>0.04578115164892033</v>
       </c>
       <c r="J16">
-        <v>0.04056087453614789</v>
+        <v>0.03099374420041592</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>59.9509192552795</v>
+        <v>62.6419255</v>
       </c>
       <c r="N16">
-        <v>59.9509192552795</v>
+        <v>125.283851</v>
       </c>
       <c r="O16">
-        <v>0.4640675365991989</v>
+        <v>0.4597733257265108</v>
       </c>
       <c r="P16">
-        <v>0.4640675365991989</v>
+        <v>0.3619939357246589</v>
       </c>
       <c r="Q16">
-        <v>307.2028571541506</v>
+        <v>384.5768841609695</v>
       </c>
       <c r="R16">
-        <v>307.2028571541506</v>
+        <v>1538.307536643878</v>
       </c>
       <c r="S16">
-        <v>0.01882298512829933</v>
+        <v>0.02104895234921383</v>
       </c>
       <c r="T16">
-        <v>0.01882298512829933</v>
+        <v>0.01121954744595188</v>
       </c>
     </row>
   </sheetData>
